--- a/excels/2021-05-17/1日行业资金流入情况.xlsx
+++ b/excels/2021-05-17/1日行业资金流入情况.xlsx
@@ -583,7 +583,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0.8</v>
+        <v>-0.76</v>
       </c>
       <c r="D4" t="n">
         <v>21</v>
@@ -657,7 +657,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0.22</v>
+        <v>0.04</v>
       </c>
       <c r="D5" t="n">
         <v>20</v>
@@ -731,7 +731,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0.6899999999999999</v>
+        <v>-0.01</v>
       </c>
       <c r="D6" t="n">
         <v>53</v>
@@ -805,7 +805,7 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>-0.44</v>
+        <v>-0.88</v>
       </c>
       <c r="D7" t="n">
         <v>33</v>
@@ -879,7 +879,7 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>-0.46</v>
+        <v>-0.31</v>
       </c>
       <c r="D8" t="n">
         <v>37</v>
@@ -953,7 +953,7 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0.77</v>
+        <v>-0.53</v>
       </c>
       <c r="D9" t="n">
         <v>8</v>
@@ -1027,7 +1027,7 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0.44</v>
+        <v>-0.14</v>
       </c>
       <c r="D10" t="n">
         <v>13</v>
@@ -1101,7 +1101,7 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>0.85</v>
+        <v>1.43</v>
       </c>
       <c r="D11" t="n">
         <v>26</v>
@@ -1175,7 +1175,7 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>0.57</v>
+        <v>1.91</v>
       </c>
       <c r="D12" t="n">
         <v>12</v>
@@ -1249,7 +1249,7 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>0.35</v>
+        <v>-0.8100000000000001</v>
       </c>
       <c r="D13" t="n">
         <v>14</v>
@@ -1323,7 +1323,7 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>1.28</v>
+        <v>-0.4</v>
       </c>
       <c r="D14" t="n">
         <v>35</v>
@@ -1397,7 +1397,7 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>0.26</v>
+        <v>-0.85</v>
       </c>
       <c r="D15" t="n">
         <v>9</v>
@@ -1471,7 +1471,7 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>0.68</v>
+        <v>0.11</v>
       </c>
       <c r="D16" t="n">
         <v>10</v>
@@ -1545,7 +1545,7 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>-0.61</v>
+        <v>0.11</v>
       </c>
       <c r="D17" t="n">
         <v>24</v>
@@ -1619,7 +1619,7 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>1.56</v>
+        <v>-0.28</v>
       </c>
       <c r="D18" t="n">
         <v>10</v>
@@ -1693,7 +1693,7 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>-0.19</v>
+        <v>-0.55</v>
       </c>
       <c r="D19" t="n">
         <v>11</v>
@@ -1767,7 +1767,7 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>3.69</v>
+        <v>-1.61</v>
       </c>
       <c r="D20" t="n">
         <v>13</v>
@@ -1841,7 +1841,7 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>0.37</v>
+        <v>0.78</v>
       </c>
       <c r="D21" t="n">
         <v>35</v>
@@ -1915,7 +1915,7 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>0.82</v>
+        <v>0.33</v>
       </c>
       <c r="D22" t="n">
         <v>5</v>
@@ -1989,7 +1989,7 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>-0.08</v>
+        <v>-1.13</v>
       </c>
       <c r="D23" t="n">
         <v>7</v>
@@ -2063,7 +2063,7 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>0.93</v>
+        <v>-1.6</v>
       </c>
       <c r="D24" t="n">
         <v>16</v>
@@ -2137,7 +2137,7 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>0.51</v>
+        <v>0.3</v>
       </c>
       <c r="D25" t="n">
         <v>5</v>
@@ -2211,7 +2211,7 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>0.39</v>
+        <v>0.72</v>
       </c>
       <c r="D26" t="n">
         <v>11</v>
@@ -2285,7 +2285,7 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>-0.58</v>
+        <v>0.01</v>
       </c>
       <c r="D27" t="n">
         <v>3</v>
@@ -2359,7 +2359,7 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>1.05</v>
+        <v>-0.24</v>
       </c>
       <c r="D28" t="n">
         <v>46</v>
@@ -2433,7 +2433,7 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>0.5600000000000001</v>
+        <v>-0.43</v>
       </c>
       <c r="D29" t="n">
         <v>32</v>
@@ -2507,7 +2507,7 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>0.33</v>
+        <v>-0.88</v>
       </c>
       <c r="D30" t="n">
         <v>4</v>
@@ -2581,7 +2581,7 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>0.29</v>
+        <v>-0.35</v>
       </c>
       <c r="D31" t="n">
         <v>18</v>
@@ -2655,7 +2655,7 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>0.71</v>
+        <v>1.03</v>
       </c>
       <c r="D32" t="n">
         <v>19</v>
@@ -2729,7 +2729,7 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>0.54</v>
+        <v>-0.07000000000000001</v>
       </c>
       <c r="D33" t="n">
         <v>8</v>
@@ -2803,7 +2803,7 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>3.24</v>
+        <v>-1.26</v>
       </c>
       <c r="D34" t="n">
         <v>3</v>
@@ -2869,7 +2869,7 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>0.52</v>
+        <v>-0.26</v>
       </c>
       <c r="D35" t="n">
         <v>36</v>
@@ -2943,7 +2943,7 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>-0.28</v>
+        <v>-0.73</v>
       </c>
       <c r="D36" t="n">
         <v>10</v>
@@ -3017,7 +3017,7 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>2.16</v>
+        <v>-0.71</v>
       </c>
       <c r="D37" t="n">
         <v>5</v>
@@ -3091,7 +3091,7 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>0.3</v>
+        <v>-0.15</v>
       </c>
       <c r="D38" t="n">
         <v>9</v>
@@ -3165,7 +3165,7 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>0.02</v>
+        <v>0.77</v>
       </c>
       <c r="D39" t="n">
         <v>41</v>
@@ -3239,7 +3239,7 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>0.7</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="D40" t="n">
         <v>18</v>
@@ -3313,7 +3313,7 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>0.73</v>
+        <v>-0.31</v>
       </c>
       <c r="D41" t="n">
         <v>17</v>
@@ -3387,7 +3387,7 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>0.97</v>
+        <v>-1.06</v>
       </c>
       <c r="D42" t="n">
         <v>6</v>
@@ -3461,7 +3461,7 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>1.08</v>
+        <v>0.08</v>
       </c>
       <c r="D43" t="n">
         <v>7</v>
@@ -3535,7 +3535,7 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>0.88</v>
+        <v>-0.48</v>
       </c>
       <c r="D44" t="n">
         <v>13</v>
@@ -3609,7 +3609,7 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>1.04</v>
+        <v>-0.04</v>
       </c>
       <c r="D45" t="n">
         <v>21</v>
@@ -3683,7 +3683,7 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>0.4</v>
+        <v>-1.01</v>
       </c>
       <c r="D46" t="n">
         <v>32</v>
@@ -3757,7 +3757,7 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>0.64</v>
+        <v>-0.32</v>
       </c>
       <c r="D47" t="n">
         <v>55</v>
@@ -3831,7 +3831,7 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>0.91</v>
+        <v>0.06</v>
       </c>
       <c r="D48" t="n">
         <v>37</v>
@@ -3905,7 +3905,7 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>-0.11</v>
+        <v>-0.19</v>
       </c>
       <c r="D49" t="n">
         <v>8</v>
@@ -3979,7 +3979,7 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>0.14</v>
+        <v>-0.53</v>
       </c>
       <c r="D50" t="n">
         <v>8</v>
@@ -4053,7 +4053,7 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>-0.12</v>
+        <v>0.3</v>
       </c>
       <c r="D51" t="n">
         <v>15</v>
@@ -4127,7 +4127,7 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>2.35</v>
+        <v>-0.6</v>
       </c>
       <c r="D52" t="n">
         <v>10</v>
@@ -4201,7 +4201,7 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>0.43</v>
+        <v>1.34</v>
       </c>
       <c r="D53" t="n">
         <v>27</v>
@@ -4275,7 +4275,7 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>0.53</v>
+        <v>-0.71</v>
       </c>
       <c r="D54" t="n">
         <v>84</v>
@@ -4349,7 +4349,7 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>0.66</v>
+        <v>-0.29</v>
       </c>
       <c r="D55" t="n">
         <v>51</v>
@@ -4423,7 +4423,7 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>1.22</v>
+        <v>-1.35</v>
       </c>
       <c r="D56" t="n">
         <v>21</v>
@@ -4497,7 +4497,7 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>1.97</v>
+        <v>-0.3</v>
       </c>
       <c r="D57" t="n">
         <v>19</v>
@@ -4571,7 +4571,7 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>0.96</v>
+        <v>-0.55</v>
       </c>
       <c r="D58" t="n">
         <v>117</v>
@@ -4645,7 +4645,7 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>0.53</v>
+        <v>-0.25</v>
       </c>
       <c r="D59" t="n">
         <v>44</v>
@@ -4719,7 +4719,7 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>0.61</v>
+        <v>-0.11</v>
       </c>
       <c r="D60" t="n">
         <v>46</v>
@@ -4793,7 +4793,7 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>0.85</v>
+        <v>-0.03</v>
       </c>
       <c r="D61" t="n">
         <v>44</v>
@@ -4867,7 +4867,7 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>0.15</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="D62" t="n">
         <v>111</v>
